--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_4_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_4_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1251193.079172587</v>
+        <v>1196241.189888491</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013172</v>
+        <v>408938.3872013175</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11497228.11079585</v>
+        <v>11497228.11079584</v>
       </c>
     </row>
     <row r="9">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>27.05677499767245</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>194.7117974622146</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>310.3199550706231</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="12">
@@ -1454,16 +1454,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>80.61128132952666</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>118.2964226714636</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
-        <v>56.67722169632512</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>223.3842861340256</v>
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>76.53519509961414</v>
       </c>
       <c r="H13" t="n">
-        <v>77.52012824943829</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.58429473553585</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>47.59530837521889</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V14" t="n">
-        <v>320.879783609152</v>
+        <v>275.485468862637</v>
       </c>
       <c r="W14" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
@@ -1697,16 +1697,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H15" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>211.8662302997449</v>
+        <v>25.62219664401453</v>
       </c>
       <c r="U15" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V15" t="n">
-        <v>210.9214325417085</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>223.3842861340256</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>50.00010435294858</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.14329602706151</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>7.226885210985831</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H17" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>102.8998512916216</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>192.4555124207344</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>3.112634640732906</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>103.1414807482851</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.89603752886885</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T18" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>8.916258666857022</v>
+        <v>73.35340349906473</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>331.2301254904634</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>96.84726682554793</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2162,25 +2162,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>55.41966255544268</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U21" t="n">
-        <v>174.1296920344376</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.14329602706151</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>7.226885210985775</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>224.3942962732597</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I23" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S23" t="n">
-        <v>149.0946298304902</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0353723969745</v>
+        <v>244.2861747787975</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>30.20278270421507</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>126.0313622967512</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T24" t="n">
         <v>211.8662302997449</v>
@@ -2456,7 +2456,7 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>76.53519509961436</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>80.39631948615272</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>301.1362812012896</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>21.92223546470208</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.0353723969745</v>
@@ -2620,7 +2620,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2684,22 +2684,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>183.928413641068</v>
       </c>
       <c r="U27" t="n">
-        <v>220.4862748417431</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
         <v>223.3842861340256</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>131.0804113283488</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>152.3549420496104</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>172.753797687834</v>
+        <v>273.7806576462941</v>
       </c>
       <c r="H29" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.89603752886885</v>
+        <v>2.644495382281245</v>
       </c>
       <c r="S30" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>173.1340455962481</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
         <v>223.3842861340256</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>119.920671635353</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>119.920671635353</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I32" t="n">
-        <v>174.9495183503184</v>
+        <v>68.40860258949222</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S32" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -3122,7 +3122,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H33" t="n">
         <v>118.2964226714636</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>144.7576972607101</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U33" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>5.243358203521452</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>76.53519509961436</v>
       </c>
       <c r="W34" t="n">
-        <v>8.916258666857022</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3274,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
         <v>417.3985592667085</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>26.59931705666405</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>359.7827142947061</v>
+        <v>98.43984862294356</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -3356,13 +3356,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>21.28457206481523</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>36.17493972186964</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>152.3549420496105</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>76.53519509961436</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.3985592667085</v>
+        <v>181.4398147901991</v>
       </c>
       <c r="H38" t="n">
-        <v>324.9248371294812</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
         <v>382.2855674184499</v>
@@ -3584,22 +3584,22 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I39" t="n">
         <v>80.84345120350704</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
-        <v>157.7540353007788</v>
+        <v>3.972315174751295</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>7.226885210985824</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>52.42857711587138</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>225.9612544565152</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>143.6547268446271</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,19 +3869,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>155.5757760245597</v>
+        <v>22.7004203213371</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>52.42857711587138</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>152.3549420496105</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>254.2285428844304</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>337.8964638257669</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>250.6568436252806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7833932307782118</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -4067,13 +4067,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>59.17136119732668</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H45" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>80.84345120350704</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>7.226885210985944</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>52.42857711587138</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W46" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1413.548593210149</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="C11" t="n">
-        <v>1413.548593210149</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="D11" t="n">
-        <v>1413.548593210149</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="E11" t="n">
-        <v>1386.218517454924</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F11" t="n">
-        <v>978.9465481215775</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G11" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I11" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J11" t="n">
-        <v>79.2644088760299</v>
+        <v>79.2644088760303</v>
       </c>
       <c r="K11" t="n">
-        <v>253.8975067193751</v>
+        <v>253.8975067193755</v>
       </c>
       <c r="L11" t="n">
-        <v>525.5283691389716</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M11" t="n">
-        <v>856.6460009292775</v>
+        <v>856.6460009292782</v>
       </c>
       <c r="N11" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O11" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P11" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q11" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R11" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S11" t="n">
-        <v>1413.548593210149</v>
+        <v>1519.054059427091</v>
       </c>
       <c r="T11" t="n">
-        <v>1413.548593210149</v>
+        <v>1519.054059427091</v>
       </c>
       <c r="U11" t="n">
-        <v>1413.548593210149</v>
+        <v>1519.054059427091</v>
       </c>
       <c r="V11" t="n">
-        <v>1413.548593210149</v>
+        <v>1519.054059427091</v>
       </c>
       <c r="W11" t="n">
-        <v>1413.548593210149</v>
+        <v>1519.054059427091</v>
       </c>
       <c r="X11" t="n">
-        <v>1413.548593210149</v>
+        <v>1205.599559355755</v>
       </c>
       <c r="Y11" t="n">
-        <v>1413.548593210149</v>
+        <v>819.452521559341</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4583331303328</v>
+        <v>585.0715161325104</v>
       </c>
       <c r="C12" t="n">
-        <v>798.0460588632965</v>
+        <v>395.6592418654741</v>
       </c>
       <c r="D12" t="n">
-        <v>637.2659426243282</v>
+        <v>314.2337051689825</v>
       </c>
       <c r="E12" t="n">
-        <v>463.7027387457426</v>
+        <v>314.2337051689825</v>
       </c>
       <c r="F12" t="n">
-        <v>303.2750224629867</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="G12" t="n">
         <v>153.8059888862266</v>
@@ -5120,52 +5120,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J12" t="n">
-        <v>54.40930111025869</v>
+        <v>54.40930111025865</v>
       </c>
       <c r="K12" t="n">
-        <v>215.5091216889814</v>
+        <v>54.40930111025865</v>
       </c>
       <c r="L12" t="n">
-        <v>498.4142537443596</v>
+        <v>337.3144331656368</v>
       </c>
       <c r="M12" t="n">
-        <v>679.5863020207055</v>
+        <v>712.2060427186982</v>
       </c>
       <c r="N12" t="n">
-        <v>1082.820066520717</v>
+        <v>1115.439807218709</v>
       </c>
       <c r="O12" t="n">
-        <v>1395.953100567611</v>
+        <v>1428.572841265603</v>
       </c>
       <c r="P12" t="n">
-        <v>1625.193464940061</v>
+        <v>1657.813205638053</v>
       </c>
       <c r="Q12" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R12" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S12" t="n">
-        <v>1448.884598007117</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T12" t="n">
-        <v>1448.884598007117</v>
+        <v>1501.726349490192</v>
       </c>
       <c r="U12" t="n">
-        <v>1448.884598007117</v>
+        <v>1501.726349490192</v>
       </c>
       <c r="V12" t="n">
-        <v>1448.884598007117</v>
+        <v>1258.646631393827</v>
       </c>
       <c r="W12" t="n">
-        <v>1448.884598007117</v>
+        <v>989.2480621241178</v>
       </c>
       <c r="X12" t="n">
-        <v>1391.63487912194</v>
+        <v>989.2480621241178</v>
       </c>
       <c r="Y12" t="n">
-        <v>1165.994186057268</v>
+        <v>763.6073690594455</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>334.8576753800221</v>
+        <v>111.6229307328433</v>
       </c>
       <c r="C13" t="n">
-        <v>334.8576753800221</v>
+        <v>111.6229307328433</v>
       </c>
       <c r="D13" t="n">
-        <v>334.8576753800221</v>
+        <v>111.6229307328433</v>
       </c>
       <c r="E13" t="n">
-        <v>334.8576753800221</v>
+        <v>111.6229307328433</v>
       </c>
       <c r="F13" t="n">
-        <v>334.8576753800221</v>
+        <v>111.6229307328433</v>
       </c>
       <c r="G13" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H13" t="n">
-        <v>256.5545155321046</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I13" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J13" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="K13" t="n">
-        <v>42.23041924514573</v>
+        <v>42.23041924514568</v>
       </c>
       <c r="L13" t="n">
-        <v>105.4471208306433</v>
+        <v>105.4471208306431</v>
       </c>
       <c r="M13" t="n">
-        <v>180.6961586662945</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N13" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O13" t="n">
-        <v>315.4306320098956</v>
+        <v>315.4306320098954</v>
       </c>
       <c r="P13" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="Q13" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="R13" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="S13" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="T13" t="n">
-        <v>334.8576753800221</v>
+        <v>111.6229307328433</v>
       </c>
       <c r="U13" t="n">
-        <v>334.8576753800221</v>
+        <v>111.6229307328433</v>
       </c>
       <c r="V13" t="n">
-        <v>334.8576753800221</v>
+        <v>111.6229307328433</v>
       </c>
       <c r="W13" t="n">
-        <v>334.8576753800221</v>
+        <v>111.6229307328433</v>
       </c>
       <c r="X13" t="n">
-        <v>334.8576753800221</v>
+        <v>111.6229307328433</v>
       </c>
       <c r="Y13" t="n">
-        <v>334.8576753800221</v>
+        <v>111.6229307328433</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>82.39072192032285</v>
+        <v>1184.903510136792</v>
       </c>
       <c r="C14" t="n">
-        <v>82.39072192032285</v>
+        <v>831.1605834891368</v>
       </c>
       <c r="D14" t="n">
-        <v>82.39072192032285</v>
+        <v>831.1605834891368</v>
       </c>
       <c r="E14" t="n">
-        <v>82.39072192032285</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F14" t="n">
-        <v>82.39072192032285</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G14" t="n">
-        <v>82.39072192032285</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H14" t="n">
-        <v>82.39072192032285</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I14" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J14" t="n">
-        <v>79.26440887602962</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K14" t="n">
-        <v>253.8975067193746</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5283691389716</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M14" t="n">
-        <v>856.6460009292775</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N14" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O14" t="n">
         <v>1460.632785841149</v>
@@ -5299,31 +5299,31 @@
         <v>1650.639799716936</v>
       </c>
       <c r="Q14" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R14" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S14" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T14" t="n">
-        <v>1497.385195807267</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U14" t="n">
-        <v>1497.385195807267</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="V14" t="n">
-        <v>1173.264202262669</v>
+        <v>1184.903510136792</v>
       </c>
       <c r="W14" t="n">
-        <v>831.9546428427027</v>
+        <v>1184.903510136792</v>
       </c>
       <c r="X14" t="n">
-        <v>468.5377597167369</v>
+        <v>1184.903510136792</v>
       </c>
       <c r="Y14" t="n">
-        <v>82.39072192032285</v>
+        <v>1184.903510136792</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>424.878314873977</v>
+        <v>533.6236769809975</v>
       </c>
       <c r="C15" t="n">
-        <v>235.4660406069408</v>
+        <v>344.2114027139612</v>
       </c>
       <c r="D15" t="n">
-        <v>235.4660406069408</v>
+        <v>344.2114027139612</v>
       </c>
       <c r="E15" t="n">
-        <v>235.4660406069408</v>
+        <v>344.2114027139612</v>
       </c>
       <c r="F15" t="n">
-        <v>235.4660406069408</v>
+        <v>183.7836864312053</v>
       </c>
       <c r="G15" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I15" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J15" t="n">
-        <v>54.4093011102587</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K15" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L15" t="n">
-        <v>498.4142537443596</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M15" t="n">
-        <v>873.3058632974212</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N15" t="n">
-        <v>1276.539627797432</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O15" t="n">
-        <v>1589.672661844326</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P15" t="n">
         <v>1625.193464940061</v>
       </c>
       <c r="Q15" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R15" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S15" t="n">
-        <v>1536.658373288803</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T15" t="n">
-        <v>1322.652080056738</v>
+        <v>1689.851636011133</v>
       </c>
       <c r="U15" t="n">
-        <v>1083.078954384285</v>
+        <v>1450.27851033868</v>
       </c>
       <c r="V15" t="n">
-        <v>870.027002321953</v>
+        <v>1207.198792242314</v>
       </c>
       <c r="W15" t="n">
-        <v>870.027002321953</v>
+        <v>937.8002229726051</v>
       </c>
       <c r="X15" t="n">
-        <v>650.5190079386493</v>
+        <v>937.8002229726051</v>
       </c>
       <c r="Y15" t="n">
-        <v>424.878314873977</v>
+        <v>712.1595299079327</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84.81980876651446</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C16" t="n">
-        <v>84.81980876651446</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D16" t="n">
-        <v>84.81980876651446</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E16" t="n">
-        <v>84.81980876651446</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F16" t="n">
-        <v>84.81980876651446</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G16" t="n">
-        <v>84.81980876651446</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H16" t="n">
-        <v>84.81980876651446</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I16" t="n">
-        <v>84.81980876651446</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J16" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K16" t="n">
-        <v>42.23041924514574</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L16" t="n">
         <v>105.4471208306433</v>
@@ -5457,31 +5457,31 @@
         <v>334.8576753800221</v>
       </c>
       <c r="Q16" t="n">
-        <v>260.9755581809701</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R16" t="n">
-        <v>84.81980876651446</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S16" t="n">
-        <v>84.81980876651446</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T16" t="n">
-        <v>84.81980876651446</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U16" t="n">
-        <v>84.81980876651446</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V16" t="n">
-        <v>84.81980876651446</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W16" t="n">
-        <v>84.81980876651446</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X16" t="n">
-        <v>84.81980876651446</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y16" t="n">
-        <v>84.81980876651446</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>369.9489506776823</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="C17" t="n">
-        <v>369.9489506776823</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="D17" t="n">
-        <v>369.9489506776823</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="E17" t="n">
-        <v>369.9489506776823</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F17" t="n">
-        <v>369.9489506776823</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G17" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H17" t="n">
         <v>34.31465285444516</v>
@@ -5515,52 +5515,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J17" t="n">
-        <v>79.2644088760299</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K17" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L17" t="n">
-        <v>525.5283691389725</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M17" t="n">
-        <v>856.6460009292783</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N17" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O17" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P17" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q17" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R17" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S17" t="n">
-        <v>1506.287932776405</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T17" t="n">
-        <v>1287.940485861413</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U17" t="n">
-        <v>1035.379503642247</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V17" t="n">
-        <v>711.2585100976488</v>
+        <v>1391.61164917766</v>
       </c>
       <c r="W17" t="n">
-        <v>369.9489506776823</v>
+        <v>1197.212141681968</v>
       </c>
       <c r="X17" t="n">
-        <v>369.9489506776823</v>
+        <v>833.7952585560026</v>
       </c>
       <c r="Y17" t="n">
-        <v>369.9489506776823</v>
+        <v>833.7952585560026</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>661.9011611699797</v>
+        <v>532.2297646494346</v>
       </c>
       <c r="C18" t="n">
-        <v>472.4888869029434</v>
+        <v>529.0856892547549</v>
       </c>
       <c r="D18" t="n">
-        <v>472.4888869029434</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="E18" t="n">
-        <v>298.9256830243578</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F18" t="n">
-        <v>138.4979667416019</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G18" t="n">
-        <v>138.4979667416019</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H18" t="n">
         <v>34.31465285444516</v>
@@ -5597,49 +5597,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K18" t="n">
-        <v>195.4144734331679</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="L18" t="n">
-        <v>478.3196054885461</v>
+        <v>317.2197849098234</v>
       </c>
       <c r="M18" t="n">
-        <v>679.5863020207055</v>
+        <v>692.1113944628851</v>
       </c>
       <c r="N18" t="n">
-        <v>1082.820066520717</v>
+        <v>1095.345158962896</v>
       </c>
       <c r="O18" t="n">
-        <v>1395.953100567611</v>
+        <v>1408.47819300979</v>
       </c>
       <c r="P18" t="n">
-        <v>1625.193464940061</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q18" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R18" t="n">
-        <v>1627.958867440573</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S18" t="n">
-        <v>1627.958867440573</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T18" t="n">
-        <v>1413.952574208507</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="U18" t="n">
-        <v>1174.379448536054</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="V18" t="n">
-        <v>931.2997304396883</v>
+        <v>1205.804879910751</v>
       </c>
       <c r="W18" t="n">
-        <v>661.9011611699797</v>
+        <v>936.4063106410421</v>
       </c>
       <c r="X18" t="n">
-        <v>661.9011611699797</v>
+        <v>936.4063106410421</v>
       </c>
       <c r="Y18" t="n">
-        <v>661.9011611699797</v>
+        <v>710.7656175763698</v>
       </c>
     </row>
     <row r="19">
@@ -5685,31 +5685,31 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N19" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O19" t="n">
-        <v>315.4306320098956</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P19" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q19" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R19" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S19" t="n">
-        <v>334.8576753800221</v>
+        <v>108.4089998231974</v>
       </c>
       <c r="T19" t="n">
-        <v>334.8576753800221</v>
+        <v>108.4089998231974</v>
       </c>
       <c r="U19" t="n">
-        <v>43.32097474015933</v>
+        <v>108.4089998231974</v>
       </c>
       <c r="V19" t="n">
-        <v>43.32097474015933</v>
+        <v>108.4089998231974</v>
       </c>
       <c r="W19" t="n">
         <v>34.31465285444516</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.31465285444518</v>
+        <v>1085.305761131543</v>
       </c>
       <c r="C20" t="n">
-        <v>34.31465285444518</v>
+        <v>1085.305761131543</v>
       </c>
       <c r="D20" t="n">
-        <v>34.31465285444518</v>
+        <v>744.1217614929296</v>
       </c>
       <c r="E20" t="n">
-        <v>34.31465285444518</v>
+        <v>368.8905371882466</v>
       </c>
       <c r="F20" t="n">
-        <v>34.31465285444518</v>
+        <v>368.8905371882466</v>
       </c>
       <c r="G20" t="n">
-        <v>34.31465285444518</v>
+        <v>368.8905371882466</v>
       </c>
       <c r="H20" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I20" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J20" t="n">
-        <v>79.2644088760303</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K20" t="n">
-        <v>253.897506719376</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L20" t="n">
-        <v>525.5283691389729</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M20" t="n">
-        <v>856.6460009292789</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N20" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O20" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P20" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q20" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R20" t="n">
-        <v>1610.227176505316</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S20" t="n">
-        <v>1413.54859321015</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T20" t="n">
-        <v>1315.723071164142</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U20" t="n">
-        <v>1063.162088944975</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="V20" t="n">
-        <v>739.0410954003776</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="W20" t="n">
-        <v>397.731535980411</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="X20" t="n">
-        <v>34.31465285444518</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="Y20" t="n">
-        <v>34.31465285444518</v>
+        <v>1463.171660503092</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>585.306031156733</v>
+        <v>263.8573138597405</v>
       </c>
       <c r="C21" t="n">
-        <v>395.8937568896967</v>
+        <v>263.8573138597405</v>
       </c>
       <c r="D21" t="n">
-        <v>395.8937568896967</v>
+        <v>263.8573138597405</v>
       </c>
       <c r="E21" t="n">
-        <v>395.8937568896967</v>
+        <v>90.29410998115495</v>
       </c>
       <c r="F21" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G21" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I21" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J21" t="n">
-        <v>54.4093011102587</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K21" t="n">
-        <v>112.3287381944638</v>
+        <v>112.3287381944631</v>
       </c>
       <c r="L21" t="n">
-        <v>395.233870249842</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M21" t="n">
-        <v>770.1254798029036</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N21" t="n">
-        <v>1173.359244302915</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O21" t="n">
-        <v>1486.492278349809</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P21" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q21" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R21" t="n">
-        <v>1627.958867440573</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S21" t="n">
-        <v>1627.958867440573</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="T21" t="n">
-        <v>1627.958867440573</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="U21" t="n">
-        <v>1452.07028962801</v>
+        <v>1174.379448536054</v>
       </c>
       <c r="V21" t="n">
-        <v>1208.990571531644</v>
+        <v>931.2997304396879</v>
       </c>
       <c r="W21" t="n">
-        <v>1208.990571531644</v>
+        <v>661.9011611699792</v>
       </c>
       <c r="X21" t="n">
-        <v>989.4825771483404</v>
+        <v>442.3931667866756</v>
       </c>
       <c r="Y21" t="n">
-        <v>763.841884083668</v>
+        <v>442.3931667866756</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C22" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D22" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E22" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F22" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G22" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H22" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I22" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J22" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K22" t="n">
-        <v>42.23041924514574</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L22" t="n">
-        <v>105.4471208306433</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M22" t="n">
-        <v>180.6961586662945</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N22" t="n">
         <v>262.1720788316463</v>
       </c>
       <c r="O22" t="n">
-        <v>315.4306320098956</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P22" t="n">
-        <v>334.8576753800221</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q22" t="n">
-        <v>260.9755581809701</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R22" t="n">
-        <v>260.9755581809701</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S22" t="n">
-        <v>260.9755581809701</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T22" t="n">
-        <v>260.9755581809701</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U22" t="n">
-        <v>260.9755581809701</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="V22" t="n">
-        <v>260.9755581809701</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W22" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X22" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>221.6975439683318</v>
+        <v>1166.794881312374</v>
       </c>
       <c r="C23" t="n">
-        <v>221.6975439683318</v>
+        <v>1166.794881312374</v>
       </c>
       <c r="D23" t="n">
-        <v>221.6975439683318</v>
+        <v>1166.794881312374</v>
       </c>
       <c r="E23" t="n">
-        <v>221.6975439683318</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="F23" t="n">
-        <v>221.6975439683318</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="G23" t="n">
-        <v>221.6975439683318</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H23" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I23" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J23" t="n">
-        <v>79.26440887602962</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K23" t="n">
-        <v>253.8975067193746</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L23" t="n">
-        <v>525.5283691389716</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M23" t="n">
-        <v>856.6460009292775</v>
+        <v>856.6460009292783</v>
       </c>
       <c r="N23" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O23" t="n">
         <v>1460.632785841149</v>
@@ -6010,31 +6010,31 @@
         <v>1650.639799716936</v>
       </c>
       <c r="Q23" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R23" t="n">
-        <v>1715.732642722259</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S23" t="n">
-        <v>1565.132006529844</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T23" t="n">
-        <v>1565.132006529844</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="U23" t="n">
-        <v>1312.571024310678</v>
+        <v>1166.794881312374</v>
       </c>
       <c r="V23" t="n">
-        <v>1312.571024310678</v>
+        <v>1166.794881312374</v>
       </c>
       <c r="W23" t="n">
-        <v>971.2614648907116</v>
+        <v>1166.794881312374</v>
       </c>
       <c r="X23" t="n">
-        <v>607.8445817647458</v>
+        <v>1166.794881312374</v>
       </c>
       <c r="Y23" t="n">
-        <v>221.6975439683318</v>
+        <v>1166.794881312374</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>588.5781085564242</v>
+        <v>482.8268917365241</v>
       </c>
       <c r="C24" t="n">
-        <v>399.1658342893879</v>
+        <v>482.8268917365241</v>
       </c>
       <c r="D24" t="n">
-        <v>238.3857180504197</v>
+        <v>322.0467754975558</v>
       </c>
       <c r="E24" t="n">
-        <v>64.82251417183414</v>
+        <v>322.0467754975558</v>
       </c>
       <c r="F24" t="n">
-        <v>34.31465285444518</v>
+        <v>161.6190592147999</v>
       </c>
       <c r="G24" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H24" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I24" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J24" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K24" t="n">
-        <v>195.4144734331679</v>
+        <v>112.3287381944633</v>
       </c>
       <c r="L24" t="n">
-        <v>478.3196054885461</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M24" t="n">
-        <v>853.2112150416076</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N24" t="n">
-        <v>1256.444979541619</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O24" t="n">
-        <v>1569.578013588513</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P24" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q24" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R24" t="n">
-        <v>1715.732642722259</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S24" t="n">
-        <v>1715.732642722259</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T24" t="n">
-        <v>1501.726349490193</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="U24" t="n">
-        <v>1262.15322381774</v>
+        <v>995.3051791025987</v>
       </c>
       <c r="V24" t="n">
-        <v>1262.15322381774</v>
+        <v>752.2254610062328</v>
       </c>
       <c r="W24" t="n">
-        <v>992.7546545480317</v>
+        <v>482.8268917365241</v>
       </c>
       <c r="X24" t="n">
-        <v>992.7546545480317</v>
+        <v>482.8268917365241</v>
       </c>
       <c r="Y24" t="n">
-        <v>767.1139614833594</v>
+        <v>482.8268917365241</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.31465285444518</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="C25" t="n">
-        <v>34.31465285444518</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="D25" t="n">
-        <v>34.31465285444518</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="E25" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F25" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G25" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H25" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I25" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J25" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K25" t="n">
-        <v>42.23041924514574</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L25" t="n">
         <v>105.4471208306433</v>
@@ -6177,22 +6177,22 @@
         <v>334.8576753800221</v>
       </c>
       <c r="T25" t="n">
-        <v>334.8576753800221</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="U25" t="n">
-        <v>334.8576753800221</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="V25" t="n">
-        <v>334.8576753800221</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="W25" t="n">
-        <v>334.8576753800221</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="X25" t="n">
-        <v>253.6492718586557</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.31465285444518</v>
+        <v>111.6229307328435</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>34.31465285444516</v>
+        <v>692.235641321585</v>
       </c>
       <c r="C26" t="n">
-        <v>34.31465285444516</v>
+        <v>338.4927146739296</v>
       </c>
       <c r="D26" t="n">
-        <v>34.31465285444516</v>
+        <v>338.4927146739296</v>
       </c>
       <c r="E26" t="n">
-        <v>34.31465285444516</v>
+        <v>338.4927146739296</v>
       </c>
       <c r="F26" t="n">
-        <v>34.31465285444516</v>
+        <v>338.4927146739296</v>
       </c>
       <c r="G26" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H26" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I26" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J26" t="n">
-        <v>79.2644088760299</v>
+        <v>79.2644088760303</v>
       </c>
       <c r="K26" t="n">
-        <v>253.8975067193751</v>
+        <v>253.8975067193755</v>
       </c>
       <c r="L26" t="n">
         <v>525.5283691389725</v>
       </c>
       <c r="M26" t="n">
-        <v>856.6460009292783</v>
+        <v>856.6460009292788</v>
       </c>
       <c r="N26" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157784</v>
       </c>
       <c r="O26" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P26" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q26" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R26" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="S26" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="T26" t="n">
-        <v>1693.588970535691</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="U26" t="n">
-        <v>1441.027988316524</v>
+        <v>1357.66619428615</v>
       </c>
       <c r="V26" t="n">
-        <v>1116.906994771926</v>
+        <v>1033.545200741552</v>
       </c>
       <c r="W26" t="n">
-        <v>775.5974353519598</v>
+        <v>692.235641321585</v>
       </c>
       <c r="X26" t="n">
-        <v>412.180552225994</v>
+        <v>692.235641321585</v>
       </c>
       <c r="Y26" t="n">
-        <v>412.180552225994</v>
+        <v>692.235641321585</v>
       </c>
     </row>
     <row r="27">
@@ -6290,61 +6290,61 @@
         <v>207.8778567330307</v>
       </c>
       <c r="E27" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F27" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G27" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H27" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I27" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J27" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K27" t="n">
-        <v>34.31465285444516</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L27" t="n">
-        <v>304.6946924676439</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M27" t="n">
-        <v>679.5863020207055</v>
+        <v>770.1254798029036</v>
       </c>
       <c r="N27" t="n">
-        <v>1082.820066520717</v>
+        <v>1173.359244302915</v>
       </c>
       <c r="O27" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349809</v>
       </c>
       <c r="P27" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="Q27" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R27" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S27" t="n">
-        <v>1536.658373288803</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="T27" t="n">
-        <v>1536.658373288803</v>
+        <v>1529.94636631714</v>
       </c>
       <c r="U27" t="n">
-        <v>1313.944964357749</v>
+        <v>1290.373240644687</v>
       </c>
       <c r="V27" t="n">
-        <v>1070.865246261383</v>
+        <v>1290.373240644687</v>
       </c>
       <c r="W27" t="n">
-        <v>801.4666769916744</v>
+        <v>1020.974671374978</v>
       </c>
       <c r="X27" t="n">
         <v>801.4666769916744</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180.9637945218297</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="C28" t="n">
-        <v>180.9637945218297</v>
+        <v>166.7191087416662</v>
       </c>
       <c r="D28" t="n">
-        <v>34.31465285444516</v>
+        <v>166.7191087416662</v>
       </c>
       <c r="E28" t="n">
-        <v>34.31465285444516</v>
+        <v>166.7191087416662</v>
       </c>
       <c r="F28" t="n">
-        <v>34.31465285444516</v>
+        <v>166.7191087416662</v>
       </c>
       <c r="G28" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H28" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I28" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J28" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K28" t="n">
-        <v>42.23041924514573</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L28" t="n">
         <v>105.4471208306433</v>
@@ -6417,19 +6417,19 @@
         <v>334.8576753800221</v>
       </c>
       <c r="U28" t="n">
-        <v>180.9637945218297</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V28" t="n">
-        <v>180.9637945218297</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W28" t="n">
-        <v>180.9637945218297</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="X28" t="n">
-        <v>180.9637945218297</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Y28" t="n">
-        <v>180.9637945218297</v>
+        <v>334.8576753800221</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>951.719705554296</v>
+        <v>686.0919959937687</v>
       </c>
       <c r="C29" t="n">
-        <v>951.719705554296</v>
+        <v>686.0919959937687</v>
       </c>
       <c r="D29" t="n">
-        <v>951.719705554296</v>
+        <v>686.0919959937687</v>
       </c>
       <c r="E29" t="n">
-        <v>951.719705554296</v>
+        <v>310.8607716890857</v>
       </c>
       <c r="F29" t="n">
-        <v>544.447736220949</v>
+        <v>310.8607716890857</v>
       </c>
       <c r="G29" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H29" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I29" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J29" t="n">
-        <v>79.2644088760303</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K29" t="n">
-        <v>253.897506719376</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L29" t="n">
-        <v>525.5283691389727</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M29" t="n">
-        <v>856.6460009292787</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N29" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O29" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P29" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q29" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R29" t="n">
-        <v>1715.732642722259</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S29" t="n">
-        <v>1715.732642722259</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T29" t="n">
-        <v>1715.732642722259</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="U29" t="n">
-        <v>1715.732642722259</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="V29" t="n">
-        <v>1715.732642722259</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="W29" t="n">
-        <v>1715.732642722259</v>
+        <v>1072.239033790183</v>
       </c>
       <c r="X29" t="n">
-        <v>1715.732642722259</v>
+        <v>1072.239033790183</v>
       </c>
       <c r="Y29" t="n">
-        <v>1329.585604925845</v>
+        <v>686.0919959937687</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>357.3468903097908</v>
+        <v>544.9347596432057</v>
       </c>
       <c r="C30" t="n">
-        <v>357.3468903097908</v>
+        <v>355.5224853761694</v>
       </c>
       <c r="D30" t="n">
-        <v>357.3468903097908</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="E30" t="n">
-        <v>183.7836864312053</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F30" t="n">
-        <v>183.7836864312053</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G30" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H30" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I30" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J30" t="n">
-        <v>34.31465285444518</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K30" t="n">
-        <v>112.3287381944638</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L30" t="n">
-        <v>395.233870249842</v>
+        <v>304.6946924676439</v>
       </c>
       <c r="M30" t="n">
-        <v>770.1254798029036</v>
+        <v>679.5863020207055</v>
       </c>
       <c r="N30" t="n">
-        <v>1173.359244302915</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O30" t="n">
-        <v>1486.492278349809</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P30" t="n">
-        <v>1715.732642722259</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q30" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R30" t="n">
-        <v>1627.958867440573</v>
+        <v>1713.061435265409</v>
       </c>
       <c r="S30" t="n">
-        <v>1448.884598007118</v>
+        <v>1713.061435265409</v>
       </c>
       <c r="T30" t="n">
-        <v>1274.001723667473</v>
+        <v>1499.055142033343</v>
       </c>
       <c r="U30" t="n">
-        <v>1274.001723667473</v>
+        <v>1259.48201636089</v>
       </c>
       <c r="V30" t="n">
-        <v>1030.922005571107</v>
+        <v>1259.48201636089</v>
       </c>
       <c r="W30" t="n">
-        <v>761.5234363013983</v>
+        <v>990.0834470911816</v>
       </c>
       <c r="X30" t="n">
-        <v>761.5234363013983</v>
+        <v>770.575452707878</v>
       </c>
       <c r="Y30" t="n">
-        <v>535.8827432367259</v>
+        <v>544.9347596432057</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.31465285444518</v>
+        <v>155.4466444053068</v>
       </c>
       <c r="C31" t="n">
-        <v>34.31465285444518</v>
+        <v>155.4466444053068</v>
       </c>
       <c r="D31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K31" t="n">
-        <v>42.23041924514574</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L31" t="n">
         <v>105.4471208306433</v>
@@ -6654,19 +6654,19 @@
         <v>334.8576753800221</v>
       </c>
       <c r="U31" t="n">
-        <v>213.7256838291604</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V31" t="n">
-        <v>213.7256838291604</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W31" t="n">
-        <v>213.7256838291604</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="X31" t="n">
-        <v>213.7256838291604</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.7256838291604</v>
+        <v>334.8576753800221</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>564.7742647044424</v>
+        <v>860.6632555829356</v>
       </c>
       <c r="C32" t="n">
-        <v>211.031338056787</v>
+        <v>860.6632555829356</v>
       </c>
       <c r="D32" t="n">
-        <v>211.031338056787</v>
+        <v>860.6632555829356</v>
       </c>
       <c r="E32" t="n">
-        <v>211.031338056787</v>
+        <v>860.6632555829356</v>
       </c>
       <c r="F32" t="n">
-        <v>211.031338056787</v>
+        <v>860.6632555829356</v>
       </c>
       <c r="G32" t="n">
-        <v>211.031338056787</v>
+        <v>439.0485492529269</v>
       </c>
       <c r="H32" t="n">
-        <v>211.031338056787</v>
+        <v>103.4142514296898</v>
       </c>
       <c r="I32" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J32" t="n">
-        <v>79.2644088760299</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K32" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L32" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M32" t="n">
         <v>856.6460009292779</v>
@@ -6727,25 +6727,25 @@
         <v>1610.227176505315</v>
       </c>
       <c r="S32" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T32" t="n">
-        <v>1195.201146295158</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U32" t="n">
-        <v>942.6401640759913</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V32" t="n">
-        <v>942.6401640759913</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="W32" t="n">
-        <v>942.6401640759913</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="X32" t="n">
-        <v>942.6401640759913</v>
+        <v>1246.81029337935</v>
       </c>
       <c r="Y32" t="n">
-        <v>942.6401640759913</v>
+        <v>860.6632555829356</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>837.9892995535727</v>
+        <v>987.4583331303328</v>
       </c>
       <c r="C33" t="n">
-        <v>648.5770252865364</v>
+        <v>798.0460588632965</v>
       </c>
       <c r="D33" t="n">
-        <v>487.7969090475681</v>
+        <v>637.2659426243282</v>
       </c>
       <c r="E33" t="n">
-        <v>314.2337051689825</v>
+        <v>463.7027387457426</v>
       </c>
       <c r="F33" t="n">
-        <v>153.8059888862266</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G33" t="n">
         <v>153.8059888862266</v>
@@ -6782,19 +6782,19 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K33" t="n">
-        <v>195.4144734331679</v>
+        <v>112.3287381944633</v>
       </c>
       <c r="L33" t="n">
-        <v>478.3196054885461</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M33" t="n">
-        <v>853.2112150416076</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N33" t="n">
-        <v>1256.444979541619</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O33" t="n">
-        <v>1569.578013588513</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P33" t="n">
         <v>1715.732642722258</v>
@@ -6803,28 +6803,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R33" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S33" t="n">
-        <v>1481.738971217633</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T33" t="n">
-        <v>1481.738971217633</v>
+        <v>1501.726349490193</v>
       </c>
       <c r="U33" t="n">
-        <v>1242.16584554518</v>
+        <v>1262.15322381774</v>
       </c>
       <c r="V33" t="n">
-        <v>1242.16584554518</v>
+        <v>1256.856902400041</v>
       </c>
       <c r="W33" t="n">
-        <v>1242.16584554518</v>
+        <v>987.4583331303328</v>
       </c>
       <c r="X33" t="n">
-        <v>1242.16584554518</v>
+        <v>987.4583331303328</v>
       </c>
       <c r="Y33" t="n">
-        <v>1016.525152480508</v>
+        <v>987.4583331303328</v>
       </c>
     </row>
     <row r="34">
@@ -6888,13 +6888,13 @@
         <v>334.8576753800221</v>
       </c>
       <c r="T34" t="n">
-        <v>334.8576753800221</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="U34" t="n">
-        <v>43.32097474015933</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="V34" t="n">
-        <v>43.32097474015933</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W34" t="n">
         <v>34.31465285444516</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>455.9293591844538</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="C35" t="n">
-        <v>455.9293591844538</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="D35" t="n">
-        <v>455.9293591844538</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="E35" t="n">
-        <v>455.9293591844538</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F35" t="n">
         <v>455.9293591844538</v>
       </c>
       <c r="G35" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H35" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I35" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J35" t="n">
-        <v>79.2644088760303</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K35" t="n">
-        <v>253.897506719376</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L35" t="n">
-        <v>525.5283691389729</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M35" t="n">
-        <v>856.6460009292787</v>
+        <v>856.6460009292783</v>
       </c>
       <c r="N35" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O35" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P35" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q35" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R35" t="n">
-        <v>1610.227176505316</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S35" t="n">
-        <v>1583.359179478382</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T35" t="n">
-        <v>1583.359179478382</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U35" t="n">
-        <v>1583.359179478382</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V35" t="n">
-        <v>1583.359179478382</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W35" t="n">
-        <v>1583.359179478382</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="X35" t="n">
-        <v>1219.942296352417</v>
+        <v>1616.298452194033</v>
       </c>
       <c r="Y35" t="n">
-        <v>833.7952585560026</v>
+        <v>1616.298452194033</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>579.5698149812729</v>
+        <v>827.0306168475769</v>
       </c>
       <c r="C36" t="n">
-        <v>390.1575407142366</v>
+        <v>637.6183425805406</v>
       </c>
       <c r="D36" t="n">
-        <v>229.3774244752683</v>
+        <v>476.8382263415723</v>
       </c>
       <c r="E36" t="n">
-        <v>55.81422059668279</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="F36" t="n">
-        <v>34.31465285444518</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G36" t="n">
-        <v>34.31465285444518</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H36" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I36" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J36" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K36" t="n">
-        <v>112.3287381944638</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L36" t="n">
-        <v>395.233870249842</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M36" t="n">
-        <v>770.1254798029036</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N36" t="n">
-        <v>1173.359244302915</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O36" t="n">
-        <v>1486.492278349809</v>
+        <v>1569.578013588513</v>
       </c>
       <c r="P36" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q36" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R36" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S36" t="n">
-        <v>1715.732642722259</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T36" t="n">
-        <v>1715.732642722259</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U36" t="n">
-        <v>1715.732642722259</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V36" t="n">
-        <v>1472.652924625893</v>
+        <v>1046.538611230881</v>
       </c>
       <c r="W36" t="n">
-        <v>1203.254355356184</v>
+        <v>1046.538611230881</v>
       </c>
       <c r="X36" t="n">
-        <v>983.7463609728804</v>
+        <v>827.0306168475769</v>
       </c>
       <c r="Y36" t="n">
-        <v>758.105667908208</v>
+        <v>827.0306168475769</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1715.732642722259</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="C37" t="n">
-        <v>1561.838761864066</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="D37" t="n">
-        <v>1415.189620196682</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="E37" t="n">
-        <v>1415.189620196682</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="F37" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G37" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H37" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I37" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J37" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K37" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L37" t="n">
-        <v>1486.32208817288</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M37" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N37" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O37" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T37" t="n">
-        <v>1715.732642722259</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="U37" t="n">
-        <v>1715.732642722259</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="V37" t="n">
-        <v>1715.732642722259</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="W37" t="n">
-        <v>1715.732642722259</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="X37" t="n">
-        <v>1715.732642722259</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="Y37" t="n">
-        <v>1715.732642722259</v>
+        <v>111.6229307328435</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>971.5191564897357</v>
+        <v>624.8591623799125</v>
       </c>
       <c r="C38" t="n">
-        <v>971.5191564897357</v>
+        <v>624.8591623799125</v>
       </c>
       <c r="D38" t="n">
-        <v>971.5191564897357</v>
+        <v>624.8591623799125</v>
       </c>
       <c r="E38" t="n">
-        <v>971.5191564897357</v>
+        <v>624.8591623799125</v>
       </c>
       <c r="F38" t="n">
-        <v>971.5191564897357</v>
+        <v>217.5871930465655</v>
       </c>
       <c r="G38" t="n">
-        <v>549.904450159727</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H38" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I38" t="n">
         <v>34.31465285444518</v>
@@ -7177,16 +7177,16 @@
         <v>79.2644088760303</v>
       </c>
       <c r="K38" t="n">
-        <v>253.8975067193755</v>
+        <v>253.897506719376</v>
       </c>
       <c r="L38" t="n">
-        <v>525.5283691389725</v>
+        <v>525.5283691389729</v>
       </c>
       <c r="M38" t="n">
-        <v>856.6460009292787</v>
+        <v>856.6460009292791</v>
       </c>
       <c r="N38" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157784</v>
       </c>
       <c r="O38" t="n">
         <v>1460.63278584115</v>
@@ -7198,28 +7198,28 @@
         <v>1715.732642722259</v>
       </c>
       <c r="R38" t="n">
-        <v>1610.227176505316</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S38" t="n">
-        <v>1610.227176505316</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="T38" t="n">
-        <v>1610.227176505316</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="U38" t="n">
-        <v>1357.66619428615</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="V38" t="n">
-        <v>1357.66619428615</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="W38" t="n">
-        <v>1357.66619428615</v>
+        <v>1374.423083302292</v>
       </c>
       <c r="X38" t="n">
-        <v>1357.66619428615</v>
+        <v>1011.006200176327</v>
       </c>
       <c r="Y38" t="n">
-        <v>971.5191564897357</v>
+        <v>624.8591623799125</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>639.7302989597495</v>
+        <v>718.9259943450423</v>
       </c>
       <c r="C39" t="n">
-        <v>450.3180246927132</v>
+        <v>718.9259943450423</v>
       </c>
       <c r="D39" t="n">
-        <v>289.5379084537449</v>
+        <v>718.9259943450423</v>
       </c>
       <c r="E39" t="n">
-        <v>115.9747045751594</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="F39" t="n">
-        <v>115.9747045751594</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="G39" t="n">
-        <v>115.9747045751594</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H39" t="n">
         <v>115.9747045751594</v>
@@ -7256,19 +7256,19 @@
         <v>34.31465285444518</v>
       </c>
       <c r="K39" t="n">
-        <v>195.4144734331679</v>
+        <v>112.3287381944638</v>
       </c>
       <c r="L39" t="n">
-        <v>478.3196054885461</v>
+        <v>395.233870249842</v>
       </c>
       <c r="M39" t="n">
-        <v>853.2112150416076</v>
+        <v>770.1254798029036</v>
       </c>
       <c r="N39" t="n">
-        <v>1256.444979541619</v>
+        <v>1173.359244302915</v>
       </c>
       <c r="O39" t="n">
-        <v>1569.578013588513</v>
+        <v>1486.492278349809</v>
       </c>
       <c r="P39" t="n">
         <v>1715.732642722259</v>
@@ -7277,28 +7277,28 @@
         <v>1715.732642722259</v>
       </c>
       <c r="R39" t="n">
-        <v>1715.732642722259</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S39" t="n">
-        <v>1715.732642722259</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="T39" t="n">
-        <v>1715.732642722259</v>
+        <v>1413.952574208508</v>
       </c>
       <c r="U39" t="n">
-        <v>1556.385132317432</v>
+        <v>1409.940134638052</v>
       </c>
       <c r="V39" t="n">
-        <v>1313.305414221066</v>
+        <v>1166.860416541686</v>
       </c>
       <c r="W39" t="n">
-        <v>1043.906844951357</v>
+        <v>897.4618472719774</v>
       </c>
       <c r="X39" t="n">
-        <v>1043.906844951357</v>
+        <v>897.4618472719774</v>
       </c>
       <c r="Y39" t="n">
-        <v>818.2661518866846</v>
+        <v>897.4618472719774</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1415.189620196682</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="C40" t="n">
-        <v>1415.189620196682</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="D40" t="n">
-        <v>1415.189620196682</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="E40" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F40" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G40" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H40" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I40" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J40" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K40" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L40" t="n">
-        <v>1486.32208817288</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M40" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N40" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O40" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T40" t="n">
-        <v>1662.774484019358</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U40" t="n">
-        <v>1662.774484019358</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V40" t="n">
-        <v>1415.189620196682</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W40" t="n">
-        <v>1415.189620196682</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="X40" t="n">
-        <v>1415.189620196682</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="Y40" t="n">
-        <v>1415.189620196682</v>
+        <v>41.61453690594601</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1005.464611381247</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C41" t="n">
-        <v>1005.464611381247</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D41" t="n">
-        <v>1005.464611381247</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E41" t="n">
-        <v>1005.464611381247</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F41" t="n">
-        <v>598.1926420478997</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G41" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H41" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I41" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J41" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K41" t="n">
-        <v>253.8975067193749</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L41" t="n">
         <v>525.5283691389718</v>
       </c>
       <c r="M41" t="n">
-        <v>856.6460009292776</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N41" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O41" t="n">
         <v>1460.632785841149</v>
@@ -7432,31 +7432,31 @@
         <v>1650.639799716936</v>
       </c>
       <c r="Q41" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R41" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S41" t="n">
-        <v>1715.732642722259</v>
+        <v>1570.626858030716</v>
       </c>
       <c r="T41" t="n">
-        <v>1715.732642722259</v>
+        <v>1352.279411115724</v>
       </c>
       <c r="U41" t="n">
-        <v>1715.732642722259</v>
+        <v>1099.718428896558</v>
       </c>
       <c r="V41" t="n">
-        <v>1391.611649177661</v>
+        <v>775.5974353519598</v>
       </c>
       <c r="W41" t="n">
-        <v>1391.611649177661</v>
+        <v>775.5974353519598</v>
       </c>
       <c r="X41" t="n">
-        <v>1391.611649177661</v>
+        <v>412.180552225994</v>
       </c>
       <c r="Y41" t="n">
-        <v>1005.464611381247</v>
+        <v>412.180552225994</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>207.8778567330307</v>
+        <v>1069.118384851047</v>
       </c>
       <c r="C42" t="n">
-        <v>207.8778567330307</v>
+        <v>879.7061105840106</v>
       </c>
       <c r="D42" t="n">
-        <v>207.8778567330307</v>
+        <v>718.9259943450423</v>
       </c>
       <c r="E42" t="n">
-        <v>34.31465285444517</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="F42" t="n">
-        <v>34.31465285444517</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="G42" t="n">
-        <v>34.31465285444517</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H42" t="n">
-        <v>34.31465285444517</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I42" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J42" t="n">
-        <v>54.40930111025871</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K42" t="n">
-        <v>215.5091216889815</v>
+        <v>112.3287381944628</v>
       </c>
       <c r="L42" t="n">
-        <v>304.6946924676441</v>
+        <v>395.2338702498411</v>
       </c>
       <c r="M42" t="n">
-        <v>679.5863020207057</v>
+        <v>770.1254798029026</v>
       </c>
       <c r="N42" t="n">
-        <v>1082.820066520717</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O42" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P42" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q42" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R42" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S42" t="n">
-        <v>1536.658373288803</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T42" t="n">
-        <v>1322.652080056738</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U42" t="n">
-        <v>1165.504831547081</v>
+        <v>1692.802925225958</v>
       </c>
       <c r="V42" t="n">
-        <v>922.4251134507153</v>
+        <v>1692.802925225958</v>
       </c>
       <c r="W42" t="n">
-        <v>653.0265441810067</v>
+        <v>1692.802925225958</v>
       </c>
       <c r="X42" t="n">
-        <v>433.518549797703</v>
+        <v>1473.294930842654</v>
       </c>
       <c r="Y42" t="n">
-        <v>207.8778567330307</v>
+        <v>1247.654237777982</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1468.147778899582</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="C43" t="n">
-        <v>1468.147778899582</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="D43" t="n">
-        <v>1468.147778899582</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E43" t="n">
-        <v>1468.147778899582</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F43" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G43" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H43" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I43" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J43" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K43" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L43" t="n">
-        <v>1486.32208817288</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M43" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N43" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O43" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P43" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q43" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R43" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S43" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T43" t="n">
-        <v>1715.732642722259</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="U43" t="n">
-        <v>1715.732642722259</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="V43" t="n">
-        <v>1468.147778899582</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="W43" t="n">
-        <v>1468.147778899582</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="X43" t="n">
-        <v>1468.147778899582</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="Y43" t="n">
-        <v>1468.147778899582</v>
+        <v>180.9637945218297</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>797.1133588230673</v>
+        <v>819.6780515710163</v>
       </c>
       <c r="C44" t="n">
-        <v>797.1133588230673</v>
+        <v>819.6780515710163</v>
       </c>
       <c r="D44" t="n">
-        <v>455.9293591844538</v>
+        <v>478.4940519324029</v>
       </c>
       <c r="E44" t="n">
-        <v>455.9293591844538</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="F44" t="n">
-        <v>455.9293591844538</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="G44" t="n">
-        <v>34.31465285444517</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="H44" t="n">
-        <v>34.31465285444517</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I44" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J44" t="n">
-        <v>79.2644088760301</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K44" t="n">
-        <v>253.8975067193753</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L44" t="n">
-        <v>525.5283691389723</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M44" t="n">
-        <v>856.6460009292783</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N44" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O44" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P44" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q44" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R44" t="n">
-        <v>1715.732642722259</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S44" t="n">
-        <v>1715.732642722259</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T44" t="n">
-        <v>1715.732642722259</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="U44" t="n">
-        <v>1715.732642722259</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="V44" t="n">
-        <v>1391.611649177661</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="W44" t="n">
-        <v>1050.302089757694</v>
+        <v>819.6780515710163</v>
       </c>
       <c r="X44" t="n">
-        <v>1050.302089757694</v>
+        <v>819.6780515710163</v>
       </c>
       <c r="Y44" t="n">
-        <v>797.1133588230673</v>
+        <v>819.6780515710163</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>570.6006670182099</v>
+        <v>848.968384250981</v>
       </c>
       <c r="C45" t="n">
-        <v>569.8093607244946</v>
+        <v>659.5561099839447</v>
       </c>
       <c r="D45" t="n">
-        <v>409.0292444855263</v>
+        <v>498.7759937449764</v>
       </c>
       <c r="E45" t="n">
-        <v>235.4660406069408</v>
+        <v>325.2127898663908</v>
       </c>
       <c r="F45" t="n">
-        <v>235.4660406069408</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="G45" t="n">
-        <v>235.4660406069408</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H45" t="n">
         <v>115.9747045751594</v>
       </c>
       <c r="I45" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J45" t="n">
-        <v>34.31465285444517</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K45" t="n">
-        <v>195.4144734331679</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L45" t="n">
-        <v>478.3196054885461</v>
+        <v>498.4142537443597</v>
       </c>
       <c r="M45" t="n">
-        <v>853.2112150416077</v>
+        <v>873.3058632974213</v>
       </c>
       <c r="N45" t="n">
-        <v>1256.444979541619</v>
+        <v>1276.539627797432</v>
       </c>
       <c r="O45" t="n">
-        <v>1569.578013588513</v>
+        <v>1589.672661844326</v>
       </c>
       <c r="P45" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q45" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R45" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S45" t="n">
-        <v>1536.658373288803</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T45" t="n">
-        <v>1322.652080056738</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U45" t="n">
-        <v>1083.078954384285</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V45" t="n">
-        <v>839.9992362879186</v>
+        <v>1472.652924625892</v>
       </c>
       <c r="W45" t="n">
-        <v>570.6006670182099</v>
+        <v>1472.652924625892</v>
       </c>
       <c r="X45" t="n">
-        <v>570.6006670182099</v>
+        <v>1253.144930242589</v>
       </c>
       <c r="Y45" t="n">
-        <v>570.6006670182099</v>
+        <v>1027.504237177916</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.61453690594612</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C46" t="n">
-        <v>41.61453690594612</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D46" t="n">
-        <v>41.61453690594612</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E46" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F46" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G46" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H46" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I46" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J46" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K46" t="n">
         <v>42.23041924514574</v>
@@ -7839,19 +7839,19 @@
         <v>334.8576753800222</v>
       </c>
       <c r="U46" t="n">
-        <v>334.8576753800222</v>
+        <v>281.8995166771218</v>
       </c>
       <c r="V46" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W46" t="n">
-        <v>41.61453690594612</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X46" t="n">
-        <v>41.61453690594612</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.61453690594612</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
   </sheetData>
@@ -8771,13 +8771,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>8.646382090491727</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>106.100556788065</v>
+        <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
         <v>310.6138585746227</v>
@@ -8789,7 +8789,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1300824528302</v>
+        <v>103.1808494245549</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9005,7 +9005,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K15" t="n">
         <v>171.373473584151</v>
@@ -9017,13 +9017,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>310.6138585746227</v>
+        <v>135.2351585535095</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
-        <v>10.68754955674478</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9242,16 +9242,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>61.40936639976319</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>8.646382090491642</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>126.3981812888867</v>
+        <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
         <v>310.6138585746227</v>
@@ -9260,7 +9260,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
-        <v>206.3638740786793</v>
+        <v>193.7122655512248</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9479,10 +9479,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K21" t="n">
-        <v>67.1508639937291</v>
+        <v>87.44848849455019</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9500,7 +9500,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.67636752131756</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9719,7 +9719,7 @@
         <v>61.40936639976319</v>
       </c>
       <c r="K24" t="n">
-        <v>171.373473584151</v>
+        <v>87.4484884945504</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9734,7 +9734,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
-        <v>122.4388889890793</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
         <v>44.67636752131756</v>
@@ -9956,13 +9956,13 @@
         <v>61.40936639976319</v>
       </c>
       <c r="K27" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L27" t="n">
-        <v>227.6529352291875</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M27" t="n">
-        <v>301.77688131</v>
+        <v>217.8518962203999</v>
       </c>
       <c r="N27" t="n">
         <v>310.6138585746227</v>
@@ -9974,7 +9974,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10190,13 +10190,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>61.40936639976319</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>87.44848849455086</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L30" t="n">
-        <v>240.3045437566416</v>
+        <v>44.62821923470651</v>
       </c>
       <c r="M30" t="n">
         <v>301.77688131</v>
@@ -10211,7 +10211,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.67636752131756</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10430,7 +10430,7 @@
         <v>61.40936639976319</v>
       </c>
       <c r="K33" t="n">
-        <v>171.373473584151</v>
+        <v>87.4484884945504</v>
       </c>
       <c r="L33" t="n">
         <v>240.3045437566416</v>
@@ -10445,7 +10445,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P33" t="n">
-        <v>122.4388889890789</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
         <v>44.67636752131756</v>
@@ -10667,7 +10667,7 @@
         <v>61.40936639976319</v>
       </c>
       <c r="K36" t="n">
-        <v>87.44848849455086</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L36" t="n">
         <v>240.3045437566416</v>
@@ -10682,7 +10682,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P36" t="n">
-        <v>206.3638740786793</v>
+        <v>122.4388889890789</v>
       </c>
       <c r="Q36" t="n">
         <v>44.67636752131756</v>
@@ -10904,7 +10904,7 @@
         <v>61.40936639976319</v>
       </c>
       <c r="K39" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849455086</v>
       </c>
       <c r="L39" t="n">
         <v>240.3045437566416</v>
@@ -10919,7 +10919,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P39" t="n">
-        <v>122.4388889890793</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
         <v>44.67636752131756</v>
@@ -11065,7 +11065,7 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L41" t="n">
-        <v>270.6444670286918</v>
+        <v>270.6444670286916</v>
       </c>
       <c r="M41" t="n">
         <v>291.2847697033555</v>
@@ -11138,13 +11138,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K42" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849454985</v>
       </c>
       <c r="L42" t="n">
-        <v>44.62821923470665</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M42" t="n">
         <v>301.77688131</v>
@@ -11159,7 +11159,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.574606631504</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
         <v>210.0462273461148</v>
@@ -11375,7 +11375,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>61.40936639976317</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
         <v>171.373473584151</v>
@@ -11393,7 +11393,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P45" t="n">
-        <v>122.4388889890788</v>
+        <v>102.1412644882568</v>
       </c>
       <c r="Q45" t="n">
         <v>44.67636752131754</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>350.2054973811788</v>
@@ -23266,19 +23266,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>344.4221370639637</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
-        <v>359.7827142947061</v>
+        <v>49.46275922408302</v>
       </c>
       <c r="Y11" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23342,22 +23342,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>78.56103374705188</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.84345120350704</v>
+        <v>80.84345120350707</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>86.89603752886886</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T12" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>160.6356927431455</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23430,16 +23430,16 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.0550137836253</v>
+        <v>91.51981868401113</v>
       </c>
       <c r="H13" t="n">
-        <v>82.56286578368646</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.58429473553588</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.14329602706151</v>
+        <v>73.14329602706154</v>
       </c>
       <c r="R13" t="n">
         <v>174.3941919203111</v>
@@ -23469,7 +23469,7 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T13" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>288.6213336334641</v>
@@ -23497,25 +23497,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I14" t="n">
-        <v>137.9137538275289</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>45.39431474651502</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23585,16 +23585,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,22 +23624,22 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>186.2440336557303</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>29.72748837369377</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J16" t="n">
-        <v>24.58419038258727</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S16" t="n">
         <v>224.1841888012565</v>
@@ -23712,10 +23712,10 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V16" t="n">
-        <v>245.1090151844499</v>
+        <v>237.8821299734641</v>
       </c>
       <c r="W16" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>221.9194554082425</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>350.2054973811788</v>
@@ -23746,10 +23746,10 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I17" t="n">
         <v>185.5090622027478</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S17" t="n">
-        <v>91.81194617059299</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>145.4409514050325</v>
       </c>
       <c r="X17" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>382.2855674184499</v>
@@ -23810,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>184.405516883633</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23828,7 +23828,7 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H18" t="n">
-        <v>15.15494192317846</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I18" t="n">
         <v>80.84345120350704</v>
@@ -23861,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.14329602706151</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R19" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S19" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W19" t="n">
-        <v>281.3944484224783</v>
+        <v>216.9573035902706</v>
       </c>
       <c r="X19" t="n">
         <v>221.9194554082425</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>403.1992496400135</v>
@@ -23986,7 +23986,7 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H20" t="n">
-        <v>332.2779548450047</v>
+        <v>1.04782935454125</v>
       </c>
       <c r="I20" t="n">
         <v>185.5090622027478</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T20" t="n">
-        <v>119.3167056202938</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
         <v>382.2855674184499</v>
@@ -24050,25 +24050,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>103.4037765644857</v>
       </c>
       <c r="G21" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,22 +24101,22 @@
         <v>177.283526739121</v>
       </c>
       <c r="T21" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>63.04770238129089</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -24150,7 +24150,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J22" t="n">
-        <v>74.58429473553585</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R22" t="n">
         <v>174.3941919203111</v>
@@ -24183,13 +24183,13 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6213336334641</v>
+        <v>281.3944484224784</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
-        <v>65.91641081607565</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>221.9194554082425</v>
@@ -24214,19 +24214,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>45.61716763172434</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>5.74919761817705</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -24284,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>128.6206564157133</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>147.9743432409925</v>
+        <v>21.9429809442413</v>
       </c>
       <c r="H24" t="n">
         <v>118.2964226714636</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24344,7 +24344,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -24372,7 +24372,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E25" t="n">
-        <v>141.676141212225</v>
+        <v>65.14094611261064</v>
       </c>
       <c r="F25" t="n">
         <v>138.9268822184467</v>
@@ -24417,7 +24417,7 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T25" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>288.6213336334641</v>
@@ -24429,10 +24429,10 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
-        <v>141.5231359220898</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>337.7721596422273</v>
@@ -24457,7 +24457,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>417.3985592667085</v>
+        <v>116.2622780654189</v>
       </c>
       <c r="H26" t="n">
         <v>332.2779548450047</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T26" t="n">
-        <v>194.2417369811397</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
         <v>382.2855674184499</v>
@@ -24572,22 +24572,22 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T27" t="n">
-        <v>211.8662302997449</v>
+        <v>27.93781665867684</v>
       </c>
       <c r="U27" t="n">
-        <v>16.69111957398533</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -24615,7 +24615,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.0550137836253</v>
+        <v>36.97460245527648</v>
       </c>
       <c r="H28" t="n">
         <v>160.0829940331247</v>
@@ -24657,7 +24657,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U28" t="n">
-        <v>136.2663915838537</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
         <v>350.2054973811788</v>
@@ -24688,16 +24688,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>244.6447615788745</v>
+        <v>143.6179016204144</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I29" t="n">
         <v>185.5090622027478</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.1639724458418</v>
@@ -24742,7 +24742,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>359.7827142947061</v>
@@ -24758,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H30" t="n">
         <v>118.2964226714636</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>84.2515421465876</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T30" t="n">
-        <v>38.73218470349676</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>25.26197861535766</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
@@ -24894,7 +24894,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U31" t="n">
-        <v>168.7006619981111</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
         <v>337.7721596422273</v>
@@ -24931,13 +24931,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>10.55954385242931</v>
+        <v>117.1004596132556</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -24982,10 +24982,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25010,7 +25010,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S33" t="n">
-        <v>32.5258294784109</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T33" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>235.4055627118808</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -25128,16 +25128,16 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T34" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V34" t="n">
-        <v>245.1090151844499</v>
+        <v>168.5738200848355</v>
       </c>
       <c r="W34" t="n">
-        <v>281.3944484224783</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X34" t="n">
         <v>221.9194554082425</v>
@@ -25162,10 +25162,10 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S35" t="n">
-        <v>168.1124804055505</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T35" t="n">
         <v>216.1639724458418</v>
@@ -25219,10 +25219,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>261.3428656717626</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25244,13 +25244,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>137.5388670551131</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>80.84345120350704</v>
@@ -25283,25 +25283,25 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S36" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>204.4739811935326</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -25314,16 +25314,16 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
-        <v>14.10223892236183</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>138.9268822184467</v>
+        <v>62.39168711883229</v>
       </c>
       <c r="G37" t="n">
         <v>168.0550137836253</v>
@@ -25365,7 +25365,7 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T37" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>288.6213336334641</v>
@@ -25402,16 +25402,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>235.9587444765094</v>
       </c>
       <c r="H38" t="n">
-        <v>7.353117715523474</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S38" t="n">
         <v>194.7117974622146</v>
@@ -25447,16 +25447,16 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25472,22 +25472,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T39" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>79.42335911494968</v>
+        <v>233.2050792409772</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -25557,7 +25557,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>141.676141212225</v>
+        <v>134.4492560012392</v>
       </c>
       <c r="F40" t="n">
         <v>138.9268822184467</v>
@@ -25602,16 +25602,16 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T40" t="n">
-        <v>168.5738200848354</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U40" t="n">
         <v>288.6213336334641</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>350.2054973811788</v>
@@ -25639,13 +25639,13 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>191.4373048101933</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I41" t="n">
         <v>185.5090622027478</v>
@@ -25678,13 +25678,13 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S41" t="n">
-        <v>194.7117974622146</v>
+        <v>51.05707061758744</v>
       </c>
       <c r="T41" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,19 +25757,19 @@
         <v>86.89603752886883</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U42" t="n">
-        <v>81.60161839116876</v>
+        <v>214.4769740943914</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>86.49830510257527</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
         <v>168.0550137836253</v>
@@ -25839,13 +25839,13 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T43" t="n">
-        <v>221.0023972007068</v>
+        <v>68.64745515109624</v>
       </c>
       <c r="U43" t="n">
         <v>288.6213336334641</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
         <v>290.3107070893353</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>371.4789120616362</v>
+        <v>117.2503691772058</v>
       </c>
       <c r="F44" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H44" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I44" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>131.6287237931693</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>186.7347582935877</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25955,13 +25955,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>99.65207792260165</v>
       </c>
       <c r="G45" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,25 +25994,25 @@
         <v>86.89603752886883</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26031,7 +26031,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>134.449256001239</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -26079,13 +26079,13 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6213336334641</v>
+        <v>236.1927565175928</v>
       </c>
       <c r="V46" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>598521.0739943725</v>
+        <v>598521.0739943724</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>598521.0739943726</v>
+        <v>598521.0739943725</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>598521.0739943726</v>
+        <v>598521.0739943724</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>598521.0739943726</v>
+        <v>598521.0739943725</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>598521.0739943725</v>
+        <v>598521.0739943726</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>529159.1971058757</v>
       </c>
       <c r="C2" t="n">
-        <v>529159.1971058757</v>
+        <v>529159.1971058756</v>
       </c>
       <c r="D2" t="n">
-        <v>529159.1971058757</v>
+        <v>529159.1971058756</v>
       </c>
       <c r="E2" t="n">
-        <v>300554.5501515163</v>
+        <v>300554.5501515162</v>
       </c>
       <c r="F2" t="n">
         <v>300554.5501515165</v>
       </c>
       <c r="G2" t="n">
-        <v>300554.5501515166</v>
+        <v>300554.5501515163</v>
       </c>
       <c r="H2" t="n">
         <v>300554.5501515164</v>
       </c>
       <c r="I2" t="n">
-        <v>300554.5501515163</v>
+        <v>300554.5501515166</v>
       </c>
       <c r="J2" t="n">
-        <v>300554.5501515163</v>
+        <v>300554.5501515166</v>
       </c>
       <c r="K2" t="n">
-        <v>300554.5501515166</v>
+        <v>300554.5501515165</v>
       </c>
       <c r="L2" t="n">
-        <v>300554.5501515162</v>
+        <v>300554.5501515165</v>
       </c>
       <c r="M2" t="n">
-        <v>300554.5501515163</v>
+        <v>300554.5501515164</v>
       </c>
       <c r="N2" t="n">
-        <v>300554.5501515166</v>
+        <v>300554.5501515164</v>
       </c>
       <c r="O2" t="n">
+        <v>300554.5501515165</v>
+      </c>
+      <c r="P2" t="n">
         <v>300554.5501515164</v>
-      </c>
-      <c r="P2" t="n">
-        <v>300554.5501515165</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>497053.1518174925</v>
+        <v>497053.1518174923</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>403791.6199395953</v>
+        <v>403791.6199395952</v>
       </c>
       <c r="C4" t="n">
         <v>403791.6199395953</v>
       </c>
       <c r="D4" t="n">
-        <v>403791.6199395953</v>
+        <v>403791.6199395952</v>
       </c>
       <c r="E4" t="n">
-        <v>22779.9226089727</v>
+        <v>22779.92260897271</v>
       </c>
       <c r="F4" t="n">
         <v>22779.9226089727</v>
@@ -26435,13 +26435,13 @@
         <v>22779.9226089727</v>
       </c>
       <c r="H4" t="n">
+        <v>22779.9226089727</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22779.9226089727</v>
+      </c>
+      <c r="J4" t="n">
         <v>22779.92260897271</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22779.92260897271</v>
-      </c>
-      <c r="J4" t="n">
-        <v>22779.9226089727</v>
       </c>
       <c r="K4" t="n">
         <v>22779.9226089727</v>
@@ -26459,7 +26459,7 @@
         <v>22779.9226089727</v>
       </c>
       <c r="P4" t="n">
-        <v>22779.92260897271</v>
+        <v>22779.9226089727</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>36091.33751189045</v>
+      </c>
+      <c r="F5" t="n">
         <v>36091.33751189046</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>36091.33751189045</v>
+      </c>
+      <c r="H5" t="n">
+        <v>36091.33751189045</v>
+      </c>
+      <c r="I5" t="n">
+        <v>36091.33751189046</v>
+      </c>
+      <c r="J5" t="n">
         <v>36091.33751189047</v>
       </c>
-      <c r="G5" t="n">
+      <c r="K5" t="n">
         <v>36091.33751189046</v>
-      </c>
-      <c r="H5" t="n">
-        <v>36091.33751189047</v>
-      </c>
-      <c r="I5" t="n">
-        <v>36091.33751189047</v>
-      </c>
-      <c r="J5" t="n">
-        <v>36091.33751189046</v>
-      </c>
-      <c r="K5" t="n">
-        <v>36091.33751189047</v>
       </c>
       <c r="L5" t="n">
         <v>36091.33751189046</v>
       </c>
       <c r="M5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="N5" t="n">
         <v>36091.33751189047</v>
       </c>
       <c r="O5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="P5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>91739.97716628044</v>
+        <v>91695.31332422857</v>
       </c>
       <c r="C6" t="n">
-        <v>91739.97716628044</v>
+        <v>91695.31332422839</v>
       </c>
       <c r="D6" t="n">
-        <v>91739.97716628044</v>
+        <v>91695.31332422845</v>
       </c>
       <c r="E6" t="n">
-        <v>-255369.8617868393</v>
+        <v>-264939.7192519895</v>
       </c>
       <c r="F6" t="n">
-        <v>241683.2900306534</v>
+        <v>232113.4325655031</v>
       </c>
       <c r="G6" t="n">
-        <v>241683.2900306534</v>
+        <v>232113.432565503</v>
       </c>
       <c r="H6" t="n">
-        <v>241683.2900306532</v>
+        <v>232113.432565503</v>
       </c>
       <c r="I6" t="n">
-        <v>241683.2900306531</v>
+        <v>232113.4325655032</v>
       </c>
       <c r="J6" t="n">
-        <v>241683.2900306531</v>
+        <v>232113.4325655032</v>
       </c>
       <c r="K6" t="n">
-        <v>241683.2900306534</v>
+        <v>232113.4325655031</v>
       </c>
       <c r="L6" t="n">
-        <v>241683.2900306531</v>
+        <v>232113.4325655031</v>
       </c>
       <c r="M6" t="n">
-        <v>134791.4306564138</v>
+        <v>125221.5731912637</v>
       </c>
       <c r="N6" t="n">
-        <v>241683.2900306534</v>
+        <v>232113.432565503</v>
       </c>
       <c r="O6" t="n">
-        <v>241683.2900306532</v>
+        <v>232113.4325655031</v>
       </c>
       <c r="P6" t="n">
-        <v>241683.2900306533</v>
+        <v>232113.432565503</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="F3" t="n">
         <v>459.2752909409236</v>
       </c>
       <c r="G3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="H3" t="n">
         <v>459.2752909409236</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>428.9331606805645</v>
+      </c>
+      <c r="F4" t="n">
         <v>428.9331606805646</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>428.9331606805645</v>
+      </c>
+      <c r="H4" t="n">
+        <v>428.9331606805645</v>
+      </c>
+      <c r="I4" t="n">
+        <v>428.9331606805646</v>
+      </c>
+      <c r="J4" t="n">
         <v>428.9331606805647</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>428.9331606805646</v>
-      </c>
-      <c r="H4" t="n">
-        <v>428.9331606805647</v>
-      </c>
-      <c r="I4" t="n">
-        <v>428.9331606805647</v>
-      </c>
-      <c r="J4" t="n">
-        <v>428.9331606805646</v>
-      </c>
-      <c r="K4" t="n">
-        <v>428.9331606805647</v>
       </c>
       <c r="L4" t="n">
         <v>428.9331606805646</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="N4" t="n">
         <v>428.9331606805647</v>
       </c>
       <c r="O4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="P4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31755,43 +31755,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H11" t="n">
-        <v>18.90875607376375</v>
+        <v>18.90875607376374</v>
       </c>
       <c r="I11" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773852</v>
       </c>
       <c r="J11" t="n">
-        <v>156.7051908522502</v>
+        <v>156.7051908522501</v>
       </c>
       <c r="K11" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573929</v>
       </c>
       <c r="L11" t="n">
-        <v>291.365167739336</v>
+        <v>291.3651677393358</v>
       </c>
       <c r="M11" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675595</v>
       </c>
       <c r="N11" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148395</v>
       </c>
       <c r="O11" t="n">
-        <v>311.0863102573771</v>
+        <v>311.086310257377</v>
       </c>
       <c r="P11" t="n">
-        <v>265.5049685685166</v>
+        <v>265.5049685685165</v>
       </c>
       <c r="Q11" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692327</v>
       </c>
       <c r="R11" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S11" t="n">
-        <v>42.07330931584442</v>
+        <v>42.0733093158444</v>
       </c>
       <c r="T11" t="n">
-        <v>8.082321954146302</v>
+        <v>8.0823219541463</v>
       </c>
       <c r="U11" t="n">
         <v>0.1477066262322567</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9878751540993452</v>
+        <v>0.9878751540993449</v>
       </c>
       <c r="H12" t="n">
-        <v>9.540794251433152</v>
+        <v>9.540794251433148</v>
       </c>
       <c r="I12" t="n">
-        <v>34.01236824420992</v>
+        <v>34.0123682442099</v>
       </c>
       <c r="J12" t="n">
-        <v>93.33253813357017</v>
+        <v>93.33253813357014</v>
       </c>
       <c r="K12" t="n">
-        <v>159.5201734582263</v>
+        <v>159.5201734582262</v>
       </c>
       <c r="L12" t="n">
         <v>214.4945592267021</v>
@@ -31852,28 +31852,28 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N12" t="n">
-        <v>256.9298629953381</v>
+        <v>256.9298629953379</v>
       </c>
       <c r="O12" t="n">
-        <v>235.0406293176631</v>
+        <v>235.040629317663</v>
       </c>
       <c r="P12" t="n">
-        <v>188.640826575339</v>
+        <v>188.6408265753389</v>
       </c>
       <c r="Q12" t="n">
         <v>126.1013968636287</v>
       </c>
       <c r="R12" t="n">
-        <v>61.3349152694313</v>
+        <v>61.33491526943128</v>
       </c>
       <c r="S12" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T12" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742533</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.0649917864539043</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8282013443196983</v>
+        <v>0.8282013443196979</v>
       </c>
       <c r="H13" t="n">
-        <v>7.363462861315141</v>
+        <v>7.363462861315138</v>
       </c>
       <c r="I13" t="n">
-        <v>24.90627315463239</v>
+        <v>24.90627315463238</v>
       </c>
       <c r="J13" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340264</v>
       </c>
       <c r="K13" t="n">
-        <v>96.22193800368856</v>
+        <v>96.22193800368852</v>
       </c>
       <c r="L13" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M13" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N13" t="n">
-        <v>126.7373929903045</v>
+        <v>126.7373929903044</v>
       </c>
       <c r="O13" t="n">
         <v>117.0624954680243</v>
       </c>
       <c r="P13" t="n">
-        <v>100.1671880439024</v>
+        <v>100.1671880439023</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.35056893207947</v>
+        <v>69.35056893207944</v>
       </c>
       <c r="R13" t="n">
-        <v>37.2389440818657</v>
+        <v>37.23894408186568</v>
       </c>
       <c r="S13" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T13" t="n">
-        <v>3.538678471184165</v>
+        <v>3.538678471184163</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107449</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32238,16 +32238,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K17" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L17" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M17" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N17" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O17" t="n">
         <v>311.0863102573771</v>
@@ -32256,16 +32256,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R17" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S17" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T17" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U17" t="n">
         <v>0.1477066262322567</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9878751540993452</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H18" t="n">
-        <v>9.540794251433152</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I18" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J18" t="n">
-        <v>93.33253813357017</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K18" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L18" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M18" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N18" t="n">
         <v>256.9298629953381</v>
@@ -32338,16 +32338,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R18" t="n">
-        <v>61.3349152694313</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S18" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T18" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8282013443196983</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H19" t="n">
-        <v>7.363462861315141</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I19" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J19" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K19" t="n">
-        <v>96.22193800368856</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L19" t="n">
         <v>123.1309525909486</v>
@@ -32414,7 +32414,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.35056893207947</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R19" t="n">
         <v>37.2389440818657</v>
@@ -32426,7 +32426,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,19 +32466,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H20" t="n">
-        <v>18.90875607376375</v>
+        <v>18.90875607376374</v>
       </c>
       <c r="I20" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J20" t="n">
-        <v>156.7051908522502</v>
+        <v>156.7051908522501</v>
       </c>
       <c r="K20" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L20" t="n">
-        <v>291.365167739336</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M20" t="n">
         <v>324.1998891675596</v>
@@ -32487,10 +32487,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O20" t="n">
-        <v>311.0863102573771</v>
+        <v>311.086310257377</v>
       </c>
       <c r="P20" t="n">
-        <v>265.5049685685166</v>
+        <v>265.5049685685165</v>
       </c>
       <c r="Q20" t="n">
         <v>199.3831741692328</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9878751540993452</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H21" t="n">
-        <v>9.540794251433152</v>
+        <v>9.54079425143315</v>
       </c>
       <c r="I21" t="n">
-        <v>34.01236824420992</v>
+        <v>34.01236824420991</v>
       </c>
       <c r="J21" t="n">
-        <v>93.33253813357017</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K21" t="n">
         <v>159.5201734582263</v>
@@ -32563,10 +32563,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N21" t="n">
-        <v>256.9298629953381</v>
+        <v>256.929862995338</v>
       </c>
       <c r="O21" t="n">
-        <v>235.0406293176631</v>
+        <v>235.040629317663</v>
       </c>
       <c r="P21" t="n">
         <v>188.640826575339</v>
@@ -32575,13 +32575,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R21" t="n">
-        <v>61.3349152694313</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S21" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T21" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742534</v>
       </c>
       <c r="U21" t="n">
         <v>0.06499178645390431</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8282013443196983</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H22" t="n">
-        <v>7.363462861315141</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I22" t="n">
-        <v>24.90627315463239</v>
+        <v>24.90627315463238</v>
       </c>
       <c r="J22" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K22" t="n">
-        <v>96.22193800368856</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L22" t="n">
         <v>123.1309525909486</v>
@@ -32642,7 +32642,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N22" t="n">
-        <v>126.7373929903045</v>
+        <v>126.7373929903044</v>
       </c>
       <c r="O22" t="n">
         <v>117.0624954680243</v>
@@ -32651,16 +32651,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.35056893207947</v>
+        <v>69.35056893207945</v>
       </c>
       <c r="R22" t="n">
-        <v>37.2389440818657</v>
+        <v>37.23894408186569</v>
       </c>
       <c r="S22" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T22" t="n">
-        <v>3.538678471184165</v>
+        <v>3.538678471184164</v>
       </c>
       <c r="U22" t="n">
         <v>0.0451746187810745</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119663</v>
       </c>
       <c r="K11" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286314</v>
       </c>
       <c r="L11" t="n">
-        <v>274.3746085046434</v>
+        <v>274.3746085046433</v>
       </c>
       <c r="M11" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336422</v>
       </c>
       <c r="N11" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459643</v>
       </c>
       <c r="O11" t="n">
-        <v>277.1250097811783</v>
+        <v>277.1250097811782</v>
       </c>
       <c r="P11" t="n">
-        <v>191.9262766422085</v>
+        <v>191.9262766422084</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.75034647002269</v>
+        <v>65.75034647002261</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.29762450082174</v>
+        <v>20.29762450082171</v>
       </c>
       <c r="K12" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>285.7627596518972</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M12" t="n">
-        <v>183.002068966006</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N12" t="n">
-        <v>407.3068328282941</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O12" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867615</v>
       </c>
       <c r="P12" t="n">
-        <v>231.5559236085354</v>
+        <v>231.5559236085353</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.45371493151265</v>
+        <v>58.50448190323728</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.995723626970261</v>
+        <v>7.995723626970218</v>
       </c>
       <c r="L13" t="n">
-        <v>63.85525412676517</v>
+        <v>63.85525412676512</v>
       </c>
       <c r="M13" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692037</v>
       </c>
       <c r="N13" t="n">
-        <v>82.2989092579312</v>
+        <v>82.29890925793116</v>
       </c>
       <c r="O13" t="n">
-        <v>53.79651836186797</v>
+        <v>53.79651836186792</v>
       </c>
       <c r="P13" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144089</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.29762450082174</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>162.7270914936593</v>
@@ -35737,13 +35737,13 @@
         <v>378.678393487941</v>
       </c>
       <c r="N15" t="n">
-        <v>407.3068328282941</v>
+        <v>231.9281328071808</v>
       </c>
       <c r="O15" t="n">
         <v>316.2959939867616</v>
       </c>
       <c r="P15" t="n">
-        <v>35.8795990866009</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q15" t="n">
         <v>91.45371493151265</v>
@@ -35895,7 +35895,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N17" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O17" t="n">
         <v>277.1250097811783</v>
@@ -35904,7 +35904,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.75034647002269</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>285.7627596518972</v>
       </c>
       <c r="M18" t="n">
-        <v>203.2996934668277</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N18" t="n">
         <v>407.3068328282941</v>
       </c>
       <c r="O18" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P18" t="n">
-        <v>231.5559236085354</v>
+        <v>218.9043150810809</v>
       </c>
       <c r="Q18" t="n">
-        <v>91.45371493151265</v>
+        <v>91.45371493151266</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.995723626970261</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L19" t="n">
-        <v>63.85525412676517</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M19" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N19" t="n">
-        <v>82.2989092579312</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O19" t="n">
-        <v>53.79651836186797</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P19" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K20" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L20" t="n">
-        <v>274.3746085046434</v>
+        <v>274.3746085046433</v>
       </c>
       <c r="M20" t="n">
         <v>334.4622543336424</v>
@@ -36135,13 +36135,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O20" t="n">
-        <v>277.1250097811783</v>
+        <v>277.1250097811782</v>
       </c>
       <c r="P20" t="n">
-        <v>191.9262766422085</v>
+        <v>191.9262766422084</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.75034647002269</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>20.29762450082174</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>58.50448190323744</v>
+        <v>78.80210640405852</v>
       </c>
       <c r="L21" t="n">
-        <v>285.7627596518972</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M21" t="n">
-        <v>378.678393487941</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N21" t="n">
-        <v>407.3068328282941</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O21" t="n">
         <v>316.2959939867616</v>
@@ -36281,19 +36281,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>7.995723626970261</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L22" t="n">
-        <v>63.85525412676517</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M22" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N22" t="n">
-        <v>82.2989092579312</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O22" t="n">
-        <v>53.79651836186797</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P22" t="n">
         <v>19.62327613144092</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405873</v>
       </c>
       <c r="L24" t="n">
         <v>285.7627596518972</v>
@@ -36454,7 +36454,7 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P24" t="n">
-        <v>147.6309385189354</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L27" t="n">
-        <v>273.1111511244432</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M27" t="n">
-        <v>378.678393487941</v>
+        <v>294.7534083983409</v>
       </c>
       <c r="N27" t="n">
         <v>407.3068328282941</v>
@@ -36694,7 +36694,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q27" t="n">
-        <v>91.45371493151265</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K30" t="n">
-        <v>78.80210640405919</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L30" t="n">
-        <v>285.7627596518972</v>
+        <v>90.08643512996213</v>
       </c>
       <c r="M30" t="n">
         <v>378.678393487941</v>
@@ -36931,7 +36931,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405873</v>
       </c>
       <c r="L33" t="n">
         <v>285.7627596518972</v>
@@ -37165,7 +37165,7 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P33" t="n">
-        <v>147.630938518935</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>78.80210640405919</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L36" t="n">
         <v>285.7627596518972</v>
@@ -37402,7 +37402,7 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P36" t="n">
-        <v>231.5559236085354</v>
+        <v>147.630938518935</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405919</v>
       </c>
       <c r="L39" t="n">
         <v>285.7627596518972</v>
@@ -37639,7 +37639,7 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P39" t="n">
-        <v>147.6309385189354</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>176.3970685286315</v>
       </c>
       <c r="L41" t="n">
-        <v>274.3746085046434</v>
+        <v>274.3746085046432</v>
       </c>
       <c r="M41" t="n">
         <v>334.4622543336424</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405821</v>
       </c>
       <c r="L42" t="n">
-        <v>90.0864351299623</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M42" t="n">
         <v>378.678393487941</v>
@@ -37879,7 +37879,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q42" t="n">
-        <v>91.45371493151266</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.4037939611969</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K44" t="n">
         <v>176.3970685286315</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K45" t="n">
         <v>162.7270914936593</v>
@@ -38113,7 +38113,7 @@
         <v>316.2959939867617</v>
       </c>
       <c r="P45" t="n">
-        <v>147.630938518935</v>
+        <v>127.333314018113</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
